--- a/DataDiccionary/DIccionarioDatos.XLSX
+++ b/DataDiccionary/DIccionarioDatos.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DropBox\Dropbox\Estudiar\CoderHouse\Programacion\11.MySQL\ER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\MySQL\MySQL-POKE\DataDiccionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860BF1D2-AD89-43F9-AF70-7979D67F2DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9098F-7019-40C1-A5C9-5E7944D0A614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17205" yWindow="2310" windowWidth="29415" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="117435" yWindow="3000" windowWidth="29415" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla FIsica MYSQL" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="101">
   <si>
     <t>COLUMN</t>
   </si>
@@ -72,9 +72,6 @@
     <t>INDEX</t>
   </si>
   <si>
-    <t>POKEMON</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entidad que contiene el listado completo de los POKEMON ( actualmente son mas de 500 ) </t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>NOW()</t>
   </si>
   <si>
-    <t>POKEMON_TYPE</t>
-  </si>
-  <si>
     <t>ID_POKEMON_TYPE</t>
   </si>
   <si>
@@ -153,27 +147,12 @@
     <t>HP</t>
   </si>
   <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>SDEF</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>COACH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entidad que contiene informacion complementaria de cada entrenador POKEMON </t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>POKEMON_PER_COACH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entidad que permite relacionar la entidad COACH y POKEMON logrando contener la relacion de 1 a N </t>
   </si>
   <si>
@@ -204,12 +180,6 @@
     <t xml:space="preserve">captured_at </t>
   </si>
   <si>
-    <t>MEDAL_PER_COACH</t>
-  </si>
-  <si>
-    <t>MEDAL</t>
-  </si>
-  <si>
     <t>ID_MEDAL</t>
   </si>
   <si>
@@ -222,9 +192,6 @@
     <t xml:space="preserve">winned_at </t>
   </si>
   <si>
-    <t>LEAGUE</t>
-  </si>
-  <si>
     <t>Entidad que contiene las medallas por Liga POKEMON</t>
   </si>
   <si>
@@ -237,9 +204,6 @@
     <t>nick</t>
   </si>
   <si>
-    <t>GYM_LEADER</t>
-  </si>
-  <si>
     <t>Entidad que contiene el listado de LEADER de GYM</t>
   </si>
   <si>
@@ -258,45 +222,30 @@
     <t xml:space="preserve">birth_date </t>
   </si>
   <si>
-    <t>POKEMON_PER_GYM_LEADER</t>
-  </si>
-  <si>
     <t>Entidad que contiene para cada LEADER que POKEMON tiene logrando contener la relacion de 1 a N</t>
   </si>
   <si>
     <t>ID_POKEMON_PER_GY&lt;_LEADER</t>
   </si>
   <si>
-    <t>POKEMON_MOVEMENT</t>
-  </si>
-  <si>
     <t>Entidad que contiene los Movimientos de cada POKEMON</t>
   </si>
   <si>
     <t>ID_POKEMON_MOVEMENT</t>
   </si>
   <si>
-    <t>ID_POKEMON smallint</t>
-  </si>
-  <si>
     <t xml:space="preserve">secondary_effect </t>
   </si>
   <si>
     <t>name varchar</t>
   </si>
   <si>
-    <t>POKEMON_MOVEMENT_PER_POKEMON</t>
-  </si>
-  <si>
     <t>Entidad que contiene para un POKEMON que movimientos tiene</t>
   </si>
   <si>
     <t>point</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
     <t>accuracy</t>
   </si>
   <si>
@@ -321,9 +270,6 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>POKEMON_PER_POKEMON_TYPE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entidad que contiene la clasificacion ( tipo Principal ) del POkEMON </t>
   </si>
   <si>
@@ -331,17 +277,84 @@
   </si>
   <si>
     <t>ID_POKEMON_PER_POKEMON_TYPE</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>sp_defense</t>
+  </si>
+  <si>
+    <t>sp_attack</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Special attack</t>
+  </si>
+  <si>
+    <t>POKEMON_MOVEMENT_PER_POKEMONS</t>
+  </si>
+  <si>
+    <t>POKEMON_MOVEMENTS</t>
+  </si>
+  <si>
+    <t>POKEMON_PER_GYM_LEADERS</t>
+  </si>
+  <si>
+    <t>GYM_LEADERS</t>
+  </si>
+  <si>
+    <t>LEAGUES</t>
+  </si>
+  <si>
+    <t>MEDAL_PER_COACHES</t>
+  </si>
+  <si>
+    <t>MEDALS</t>
+  </si>
+  <si>
+    <t>POKEMON_PER_COACHES</t>
+  </si>
+  <si>
+    <t>COACHES</t>
+  </si>
+  <si>
+    <t>POKEMON_PER_POKEMON_TYPES</t>
+  </si>
+  <si>
+    <t>POKEMON_TYPES</t>
+  </si>
+  <si>
+    <t>POKEMONS</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>POKEMON_MOVEMENT_PER_POKEMON_TYPES</t>
+  </si>
+  <si>
+    <t>ID_POKEMON_MOVEMENT_PER_POKEMON_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,33 +479,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,16 +514,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -519,31 +532,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,17 +780,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K207"/>
+  <dimension ref="B2:K219"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="K158" sqref="K158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="10" customWidth="1"/>
     <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" style="10" customWidth="1"/>
@@ -785,33 +804,33 @@
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -847,40 +866,40 @@
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -890,18 +909,18 @@
     <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -910,20 +929,20 @@
     <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4">
         <v>30</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -931,56 +950,56 @@
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
+      <c r="C9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -990,70 +1009,76 @@
     <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="4"/>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
@@ -1071,33 +1096,33 @@
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
@@ -1133,38 +1158,38 @@
     </row>
     <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1174,19 +1199,19 @@
     <row r="23" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="3"/>
@@ -1194,10 +1219,10 @@
     <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1307,33 +1332,33 @@
       <c r="B34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="22"/>
+      <c r="C35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
@@ -1369,40 +1394,40 @@
     </row>
     <row r="37" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1411,18 +1436,18 @@
     </row>
     <row r="39" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1432,15 +1457,15 @@
     <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4">
@@ -1452,19 +1477,19 @@
     <row r="41" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="3"/>
@@ -1472,10 +1497,10 @@
     <row r="42" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1549,33 +1574,33 @@
       <c r="B49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="22"/>
+      <c r="C49" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="22"/>
+      <c r="C50" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="26"/>
     </row>
     <row r="51" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
@@ -1611,40 +1636,40 @@
     </row>
     <row r="52" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -1654,15 +1679,15 @@
     <row r="54" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4">
@@ -1670,21 +1695,21 @@
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="19" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="3" t="s">
-        <v>39</v>
+      <c r="C55" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4">
@@ -1692,21 +1717,21 @@
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="3" t="s">
-        <v>40</v>
+      <c r="C56" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4">
@@ -1714,21 +1739,21 @@
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
-      <c r="C57" s="3" t="s">
-        <v>41</v>
+      <c r="C57" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="5">
@@ -1736,98 +1761,108 @@
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="19" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="3" t="s">
-        <v>42</v>
+      <c r="C58" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="9" t="s">
-        <v>44</v>
+      <c r="G58" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="5">
         <v>0</v>
       </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="19" t="s">
-        <v>94</v>
+      <c r="K58" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="3" t="s">
-        <v>43</v>
+      <c r="C59" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="3"/>
+      <c r="K59" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="60" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>24</v>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H60" s="4"/>
-      <c r="I60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="4"/>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5"/>
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="12"/>
+      <c r="D62" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
@@ -1841,129 +1876,121 @@
       <c r="J63" s="13"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="65" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="22"/>
+    <row r="64" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="12"/>
     </row>
     <row r="66" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="26"/>
     </row>
     <row r="67" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="26"/>
+    </row>
+    <row r="68" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70" s="4">
         <v>30</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -1972,17 +1999,17 @@
     <row r="71" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71" s="4">
         <v>30</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -1992,15 +2019,15 @@
     <row r="72" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -2010,10 +2037,10 @@
     <row r="73" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73" s="4">
         <v>200</v>
@@ -2028,15 +2055,15 @@
     <row r="74" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="5">
@@ -2048,19 +2075,19 @@
     <row r="75" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="3"/>
@@ -2068,10 +2095,10 @@
     <row r="76" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2097,12 +2124,12 @@
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,126 +2144,118 @@
       <c r="J79" s="13"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="81" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="22"/>
+    <row r="80" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="12"/>
     </row>
     <row r="82" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="26"/>
     </row>
     <row r="83" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="26"/>
+    </row>
+    <row r="84" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K84" s="3"/>
-    </row>
     <row r="85" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
-        <v>35</v>
+      <c r="B85" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
+      <c r="J85" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K85" s="3"/>
     </row>
     <row r="86" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -2244,119 +2263,135 @@
       <c r="K86" s="3"/>
     </row>
     <row r="87" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
+      <c r="B87" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C87" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H87" s="4"/>
-      <c r="I87" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J87" s="5"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="3"/>
     </row>
     <row r="88" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="3"/>
     </row>
     <row r="89" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="3"/>
     </row>
     <row r="90" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="12"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="13"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="12"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="14"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13"/>
-      <c r="E92" s="15"/>
+      <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="13"/>
       <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
       <c r="K92" s="12"/>
     </row>
     <row r="93" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="11"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="12"/>
       <c r="D93" s="13"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
       <c r="K93" s="12"/>
     </row>
     <row r="94" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="13"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
       <c r="K94" s="12"/>
     </row>
     <row r="95" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2371,124 +2406,118 @@
       <c r="J95" s="13"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="97" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="22"/>
+    <row r="96" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="12"/>
     </row>
     <row r="98" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="26"/>
     </row>
     <row r="99" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="26"/>
+    </row>
+    <row r="100" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="J101" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K101" s="3"/>
     </row>
     <row r="102" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
+      <c r="B102" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="5">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -2496,72 +2525,78 @@
       <c r="K102" s="3"/>
     </row>
     <row r="103" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="D103" s="5">
+        <v>30</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H103" s="4"/>
-      <c r="I103" s="4">
-        <v>1</v>
-      </c>
+      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="3"/>
     </row>
     <row r="104" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H104" s="4"/>
-      <c r="I104" s="4" t="s">
-        <v>32</v>
+      <c r="I104" s="4">
+        <v>1</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="3"/>
     </row>
     <row r="105" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D105" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="6"/>
+      <c r="C106" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="13"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="12"/>
+      <c r="D106" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="3"/>
     </row>
     <row r="107" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="13"/>
@@ -2576,39 +2611,39 @@
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="14"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="12"/>
       <c r="D108" s="13"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c r="G108" s="13"/>
       <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="11"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="12"/>
       <c r="D109" s="13"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,126 +2658,118 @@
       <c r="J111" s="13"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="113" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="21"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="22"/>
+    <row r="112" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="12"/>
     </row>
     <row r="114" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="26"/>
     </row>
     <row r="115" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="26"/>
+    </row>
+    <row r="116" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D116" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E116" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F116" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I116" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J115" s="7" t="s">
+      <c r="J116" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K116" s="3"/>
     </row>
     <row r="117" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="J117" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K117" s="3"/>
     </row>
     <row r="118" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -2750,72 +2777,80 @@
       <c r="K118" s="3"/>
     </row>
     <row r="119" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="4"/>
+      <c r="B119" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C119" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J119" s="5"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
       <c r="K119" s="3"/>
     </row>
     <row r="120" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="3"/>
     </row>
     <row r="121" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J121" s="5"/>
       <c r="K121" s="3"/>
     </row>
     <row r="122" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="13"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="12"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="3"/>
     </row>
     <row r="123" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="13"/>
@@ -2830,39 +2865,39 @@
       <c r="K123" s="12"/>
     </row>
     <row r="124" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="14"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="12"/>
       <c r="D124" s="13"/>
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="13"/>
       <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
       <c r="K124" s="12"/>
     </row>
     <row r="125" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="11"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="12"/>
       <c r="D125" s="13"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
       <c r="K125" s="12"/>
     </row>
     <row r="126" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
       <c r="K126" s="12"/>
     </row>
     <row r="127" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2877,181 +2912,181 @@
       <c r="J127" s="13"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="129" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="22"/>
+    <row r="128" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="12"/>
     </row>
     <row r="130" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="26"/>
     </row>
     <row r="131" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="26"/>
+    </row>
+    <row r="132" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E132" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H131" s="7" t="s">
+      <c r="H132" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I131" s="7" t="s">
+      <c r="I132" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J131" s="7" t="s">
+      <c r="J132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K132" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K132" s="3"/>
-    </row>
     <row r="133" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="5"/>
-      <c r="C133" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="4">
-        <v>30</v>
-      </c>
+      <c r="C133" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
+      <c r="J133" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K133" s="3"/>
     </row>
     <row r="134" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
+      <c r="B134" s="5"/>
       <c r="C134" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E134" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="4">
+        <v>30</v>
+      </c>
       <c r="F134" s="4"/>
       <c r="G134" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="3"/>
     </row>
     <row r="135" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
-      <c r="C135" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>24</v>
+      <c r="C135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H135" s="4"/>
-      <c r="I135" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J135" s="5"/>
+      <c r="I135" s="4">
+        <v>1</v>
+      </c>
+      <c r="J135" s="4"/>
       <c r="K135" s="3"/>
     </row>
     <row r="136" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J136" s="5"/>
       <c r="K136" s="3"/>
     </row>
     <row r="137" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="13"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="12"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="3"/>
     </row>
     <row r="138" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="13"/>
@@ -3078,39 +3113,39 @@
       <c r="K139" s="12"/>
     </row>
     <row r="140" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="14"/>
+      <c r="B140" s="13"/>
       <c r="C140" s="12"/>
       <c r="D140" s="13"/>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
       <c r="K140" s="12"/>
     </row>
     <row r="141" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="11"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="12"/>
       <c r="D141" s="13"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="13"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
       <c r="K141" s="12"/>
     </row>
     <row r="142" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="13"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
       <c r="G142" s="13"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
       <c r="K142" s="12"/>
     </row>
     <row r="143" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,126 +3160,118 @@
       <c r="J143" s="13"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="145" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
-      <c r="K145" s="22"/>
+    <row r="144" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="11"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="12"/>
     </row>
     <row r="146" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="26"/>
     </row>
     <row r="147" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="26"/>
+    </row>
+    <row r="148" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D148" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E148" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="7" t="s">
+      <c r="G148" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H147" s="7" t="s">
+      <c r="H148" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I147" s="7" t="s">
+      <c r="I148" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J147" s="7" t="s">
+      <c r="J148" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K148" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K148" s="3"/>
     </row>
     <row r="149" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
+      <c r="J149" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K149" s="3"/>
     </row>
     <row r="150" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
-      <c r="C150" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="4">
-        <v>30</v>
-      </c>
+      <c r="B150" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
@@ -3252,17 +3279,19 @@
       <c r="K150" s="3"/>
     </row>
     <row r="151" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="5"/>
+      <c r="B151" s="4"/>
       <c r="C151" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E151" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" s="4">
+        <v>30</v>
+      </c>
       <c r="F151" s="4"/>
       <c r="G151" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -3270,247 +3299,245 @@
       <c r="K151" s="3"/>
     </row>
     <row r="152" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
+      <c r="B152" s="5"/>
       <c r="C152" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E152" s="4">
-        <v>200</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="5"/>
+      <c r="G152" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="3"/>
     </row>
     <row r="153" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="5"/>
+      <c r="B153" s="4"/>
       <c r="C153" s="8" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="E153" s="4">
+        <v>200</v>
+      </c>
       <c r="F153" s="4"/>
-      <c r="G153" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="G153" s="5"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="5">
-        <v>1</v>
-      </c>
-      <c r="J153" s="5"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
       <c r="K153" s="3"/>
     </row>
     <row r="154" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="4"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H154" s="4"/>
-      <c r="I154" s="4" t="s">
-        <v>32</v>
+      <c r="I154" s="5">
+        <v>1</v>
       </c>
       <c r="J154" s="5"/>
       <c r="K154" s="3"/>
     </row>
     <row r="155" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
+      <c r="B155" s="4"/>
       <c r="C155" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J155" s="5"/>
       <c r="K155" s="3"/>
     </row>
     <row r="156" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="23"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="24"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="3"/>
     </row>
     <row r="157" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="26"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="24"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="21"/>
     </row>
     <row r="158" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="26"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="25"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="22"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
-      <c r="G158" s="25"/>
+      <c r="G158" s="22"/>
       <c r="H158" s="23"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="25"/>
-      <c r="K158" s="24"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="21"/>
     </row>
     <row r="159" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="26"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="25"/>
-      <c r="J159" s="25"/>
-      <c r="K159" s="24"/>
-    </row>
-    <row r="161" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="22"/>
+      <c r="J159" s="22"/>
+      <c r="K159" s="21"/>
+    </row>
+    <row r="160" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="23"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="22"/>
+      <c r="J160" s="22"/>
+      <c r="K160" s="21"/>
     </row>
     <row r="162" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="21"/>
-      <c r="K162" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="26"/>
     </row>
     <row r="163" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="26"/>
+    </row>
+    <row r="164" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D164" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E164" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F164" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="G164" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="H164" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I163" s="7" t="s">
+      <c r="I164" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J163" s="7" t="s">
+      <c r="J164" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K164" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K164" s="3"/>
     </row>
     <row r="165" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
+      <c r="J165" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K165" s="3"/>
     </row>
     <row r="166" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -3518,64 +3545,80 @@
       <c r="K166" s="3"/>
     </row>
     <row r="167" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="4"/>
-      <c r="C167" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>24</v>
+      <c r="B167" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H167" s="4"/>
-      <c r="I167" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="3"/>
     </row>
     <row r="168" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="8" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D168" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="5">
+        <v>1</v>
+      </c>
+      <c r="J168" s="5"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J169" s="4"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="6"/>
+      <c r="C170" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="3"/>
-    </row>
-    <row r="169" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="13"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="12"/>
-    </row>
-    <row r="170" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="13"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="12"/>
+      <c r="D170" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="3"/>
     </row>
     <row r="171" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13"/>
@@ -3590,39 +3633,39 @@
       <c r="K171" s="12"/>
     </row>
     <row r="172" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="14"/>
+      <c r="B172" s="13"/>
       <c r="C172" s="12"/>
       <c r="D172" s="13"/>
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
       <c r="K172" s="12"/>
     </row>
     <row r="173" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="11"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="12"/>
       <c r="D173" s="13"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
       <c r="G173" s="13"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14"/>
       <c r="K173" s="12"/>
     </row>
     <row r="174" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="11"/>
       <c r="C174" s="12"/>
       <c r="D174" s="13"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="13"/>
-      <c r="J174" s="13"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
       <c r="K174" s="12"/>
     </row>
     <row r="175" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,137 +3681,129 @@
       <c r="K175" s="12"/>
     </row>
     <row r="176" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="16"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="16"/>
-      <c r="J176" s="16"/>
-      <c r="K176" s="17"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="12"/>
     </row>
     <row r="177" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D177" s="21"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="21"/>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21"/>
-      <c r="K177" s="22"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="16"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="17"/>
     </row>
     <row r="178" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
-      <c r="J178" s="21"/>
-      <c r="K178" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="25"/>
+      <c r="K178" s="26"/>
     </row>
     <row r="179" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="26"/>
+    </row>
+    <row r="180" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E180" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F180" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G179" s="7" t="s">
+      <c r="G180" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I179" s="7" t="s">
+      <c r="I180" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J179" s="7" t="s">
+      <c r="J180" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K180" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K180" s="3"/>
     </row>
     <row r="181" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
+      <c r="J181" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K181" s="3"/>
     </row>
     <row r="182" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
       <c r="C182" s="8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E182" s="4">
         <v>30</v>
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -3778,17 +3813,17 @@
     <row r="183" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="C183" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E183" s="4">
         <v>50</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -3798,15 +3833,15 @@
     <row r="184" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
       <c r="C184" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="4">
@@ -3818,19 +3853,19 @@
     <row r="185" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="C185" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J185" s="5"/>
       <c r="K185" s="3"/>
@@ -3838,10 +3873,10 @@
     <row r="186" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="C186" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -3915,33 +3950,33 @@
       <c r="B193" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C193" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="21"/>
-      <c r="I193" s="21"/>
-      <c r="J193" s="21"/>
-      <c r="K193" s="22"/>
+      <c r="C193" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="25"/>
+      <c r="K193" s="26"/>
     </row>
     <row r="194" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C194" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="21"/>
-      <c r="I194" s="21"/>
-      <c r="J194" s="21"/>
-      <c r="K194" s="22"/>
+      <c r="C194" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="26"/>
     </row>
     <row r="195" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
@@ -3977,40 +4012,40 @@
     </row>
     <row r="196" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K196" s="3"/>
     </row>
     <row r="197" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
@@ -4019,18 +4054,18 @@
     </row>
     <row r="198" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -4040,15 +4075,15 @@
     <row r="199" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="C199" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
@@ -4057,160 +4092,362 @@
     </row>
     <row r="200" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
-      <c r="C200" s="3" t="s">
-        <v>86</v>
+      <c r="C200" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H200" s="4"/>
-      <c r="I200" s="4"/>
+      <c r="I200" s="4">
+        <v>1</v>
+      </c>
       <c r="J200" s="4"/>
       <c r="K200" s="3"/>
     </row>
     <row r="201" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
-      <c r="C201" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>20</v>
+      <c r="C201" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H201" s="4"/>
-      <c r="I201" s="5"/>
+      <c r="I201" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J201" s="5"/>
       <c r="K201" s="3"/>
     </row>
     <row r="202" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="4"/>
+      <c r="B202" s="5"/>
       <c r="C202" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D202" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="23"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="23"/>
+      <c r="I203" s="23"/>
+      <c r="J203" s="23"/>
+      <c r="K203" s="21"/>
+    </row>
+    <row r="204" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="23"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="22"/>
+      <c r="J204" s="22"/>
+      <c r="K204" s="21"/>
+    </row>
+    <row r="205" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="23"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="22"/>
+      <c r="J205" s="22"/>
+      <c r="K205" s="21"/>
+    </row>
+    <row r="207" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D207" s="25"/>
+      <c r="E207" s="25"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="25"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="25"/>
+      <c r="K207" s="26"/>
+    </row>
+    <row r="208" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="26"/>
+    </row>
+    <row r="209" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I209" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="C213" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H213" s="4"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4">
+        <v>1</v>
+      </c>
+      <c r="J214" s="4"/>
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="C215" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H202" s="4"/>
-      <c r="I202" s="4">
-        <v>1</v>
-      </c>
-      <c r="J202" s="4"/>
-      <c r="K202" s="3"/>
-    </row>
-    <row r="203" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="5"/>
-      <c r="C203" s="8" t="s">
+      <c r="D215" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J215" s="5"/>
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="C216" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H203" s="4"/>
-      <c r="I203" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J203" s="5"/>
-      <c r="K203" s="3"/>
-    </row>
-    <row r="204" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="5"/>
-      <c r="C204" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="9"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="6"/>
-      <c r="J204" s="5"/>
-      <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="6"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="6"/>
-      <c r="I205" s="6"/>
-      <c r="J205" s="6"/>
-      <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="6"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
-      <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="6"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-      <c r="K207" s="3"/>
+      <c r="D216" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="23"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="23"/>
+      <c r="K217" s="21"/>
+    </row>
+    <row r="218" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="23"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="22"/>
+      <c r="J218" s="22"/>
+      <c r="K218" s="21"/>
+    </row>
+    <row r="219" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="23"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="22"/>
+      <c r="J219" s="22"/>
+      <c r="K219" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C147:K147"/>
     <mergeCell ref="C178:K178"/>
-    <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C194:K194"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C113:K113"/>
-    <mergeCell ref="C161:K161"/>
-    <mergeCell ref="C65:K65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C145:K145"/>
+    <mergeCell ref="C163:K163"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C49:K49"/>
+    <mergeCell ref="C179:K179"/>
+    <mergeCell ref="C193:K193"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C114:K114"/>
+    <mergeCell ref="C162:K162"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="C67:K67"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="C83:K83"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="C131:K131"/>
     <mergeCell ref="C146:K146"/>
-    <mergeCell ref="C177:K177"/>
-    <mergeCell ref="C162:K162"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataDiccionary/DIccionarioDatos.XLSX
+++ b/DataDiccionary/DIccionarioDatos.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\MySQL\MySQL-POKE\DataDiccionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9098F-7019-40C1-A5C9-5E7944D0A614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D5DC5-4860-406D-9DB7-B578B4A6ECBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="117435" yWindow="3000" windowWidth="29415" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="123075" yWindow="3570" windowWidth="23640" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla FIsica MYSQL" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="115">
   <si>
     <t>COLUMN</t>
   </si>
@@ -234,21 +234,9 @@
     <t>ID_POKEMON_MOVEMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">secondary_effect </t>
-  </si>
-  <si>
-    <t>name varchar</t>
-  </si>
-  <si>
     <t>Entidad que contiene para un POKEMON que movimientos tiene</t>
   </si>
   <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
     <t>ID_POKEMON_MOVEMENT_PER_POKEMON</t>
   </si>
   <si>
@@ -333,21 +321,82 @@
     <t>base</t>
   </si>
   <si>
-    <t>POKEMON_MOVEMENT_PER_POKEMON_TYPES</t>
-  </si>
-  <si>
-    <t>ID_POKEMON_MOVEMENT_PER_POKEMON_TYPE</t>
+    <t>against_bug</t>
+  </si>
+  <si>
+    <t>against_dark</t>
+  </si>
+  <si>
+    <t>against_dragon</t>
+  </si>
+  <si>
+    <t>against_electric</t>
+  </si>
+  <si>
+    <t>against_fairy</t>
+  </si>
+  <si>
+    <t>against_fight</t>
+  </si>
+  <si>
+    <t>against_fire</t>
+  </si>
+  <si>
+    <t>against_flying</t>
+  </si>
+  <si>
+    <t>against_ghost</t>
+  </si>
+  <si>
+    <t>against_grass</t>
+  </si>
+  <si>
+    <t>against_ground</t>
+  </si>
+  <si>
+    <t>against_ice</t>
+  </si>
+  <si>
+    <t>against_normal</t>
+  </si>
+  <si>
+    <t>against_poison</t>
+  </si>
+  <si>
+    <t>against_psychic</t>
+  </si>
+  <si>
+    <t>against_rock</t>
+  </si>
+  <si>
+    <t>against_steel</t>
+  </si>
+  <si>
+    <t>against_water</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>3,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,6 +441,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -479,33 +533,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,16 +568,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,38 +586,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K219"/>
+  <dimension ref="B2:K218"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -804,33 +865,33 @@
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -950,8 +1011,8 @@
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="27" t="s">
-        <v>98</v>
+      <c r="C9" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
@@ -1096,33 +1157,33 @@
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
+      <c r="C19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
@@ -1332,33 +1393,33 @@
       <c r="B34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
+      <c r="C34" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
+      <c r="C35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
@@ -1397,7 +1458,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>19</v>
@@ -1574,33 +1635,33 @@
       <c r="B49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
+      <c r="C50" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
@@ -1695,13 +1756,13 @@
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="27" t="s">
-        <v>74</v>
+      <c r="C55" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>19</v>
@@ -1717,13 +1778,13 @@
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="27" t="s">
-        <v>81</v>
+      <c r="C56" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>19</v>
@@ -1739,13 +1800,13 @@
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
-      <c r="C57" s="27" t="s">
-        <v>82</v>
+      <c r="C57" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>19</v>
@@ -1761,20 +1822,20 @@
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="27" t="s">
-        <v>83</v>
+      <c r="C58" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="28" t="s">
+      <c r="G58" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H58" s="4"/>
@@ -1782,14 +1843,14 @@
         <v>0</v>
       </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="27" t="s">
-        <v>85</v>
+      <c r="K58" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="27" t="s">
-        <v>84</v>
+      <c r="C59" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>19</v>
@@ -1805,7 +1866,7 @@
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,33 +1953,33 @@
       <c r="B66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26"/>
+      <c r="C66" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="26"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
@@ -2160,33 +2221,33 @@
       <c r="B82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="26"/>
+      <c r="C82" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
@@ -2422,33 +2483,33 @@
       <c r="B98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="26"/>
+      <c r="C98" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="28"/>
     </row>
     <row r="99" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="28"/>
     </row>
     <row r="100" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
@@ -2674,33 +2735,33 @@
       <c r="B114" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="26"/>
+      <c r="C114" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="28"/>
     </row>
     <row r="115" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="26"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="28"/>
     </row>
     <row r="116" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
@@ -2928,33 +2989,33 @@
       <c r="B130" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="26"/>
+      <c r="C130" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="28"/>
     </row>
     <row r="131" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="26"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="28"/>
     </row>
     <row r="132" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
@@ -3176,33 +3237,33 @@
       <c r="B146" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C146" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="25"/>
-      <c r="K146" s="26"/>
+      <c r="C146" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="28"/>
     </row>
     <row r="147" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="25"/>
-      <c r="J147" s="25"/>
-      <c r="K147" s="26"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="28"/>
     </row>
     <row r="148" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
@@ -3442,33 +3503,33 @@
       <c r="B162" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C162" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="25"/>
-      <c r="I162" s="25"/>
-      <c r="J162" s="25"/>
-      <c r="K162" s="26"/>
+      <c r="C162" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="28"/>
     </row>
     <row r="163" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="24" t="s">
+      <c r="C163" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="25"/>
-      <c r="I163" s="25"/>
-      <c r="J163" s="25"/>
-      <c r="K163" s="26"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="28"/>
     </row>
     <row r="164" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
@@ -3708,33 +3769,33 @@
       <c r="B178" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C178" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
-      <c r="J178" s="25"/>
-      <c r="K178" s="26"/>
+      <c r="C178" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="28"/>
     </row>
     <row r="179" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-      <c r="J179" s="25"/>
-      <c r="K179" s="26"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="28"/>
     </row>
     <row r="180" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
@@ -3791,16 +3852,16 @@
       <c r="K181" s="3"/>
     </row>
     <row r="182" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="4"/>
-      <c r="C182" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E182" s="4">
-        <v>30</v>
-      </c>
+      <c r="B182" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="9" t="s">
         <v>38</v>
@@ -3811,15 +3872,15 @@
       <c r="K182" s="3"/>
     </row>
     <row r="183" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="5"/>
-      <c r="C183" s="8" t="s">
-        <v>66</v>
+      <c r="B183" s="4"/>
+      <c r="C183" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E183" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="9" t="s">
@@ -3950,33 +4011,33 @@
       <c r="B193" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C193" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="25"/>
-      <c r="I193" s="25"/>
-      <c r="J193" s="25"/>
-      <c r="K193" s="26"/>
+      <c r="C193" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
+      <c r="K193" s="28"/>
     </row>
     <row r="194" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C194" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="25"/>
-      <c r="I194" s="25"/>
-      <c r="J194" s="25"/>
-      <c r="K194" s="26"/>
+      <c r="C194" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+      <c r="K194" s="28"/>
     </row>
     <row r="195" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
@@ -4015,7 +4076,7 @@
         <v>28</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>19</v>
@@ -4053,16 +4114,16 @@
       <c r="K197" s="3"/>
     </row>
     <row r="198" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F198" s="4"/>
       <c r="G198" s="9" t="s">
         <v>38</v>
@@ -4074,235 +4135,251 @@
     </row>
     <row r="199" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
-      <c r="C199" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E199" s="4"/>
+      <c r="C199" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D199" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F199" s="4"/>
-      <c r="G199" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G199" s="9"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="3"/>
     </row>
     <row r="200" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="4"/>
-      <c r="C200" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E200" s="4"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D200" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F200" s="4"/>
-      <c r="G200" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G200" s="9"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="4">
-        <v>1</v>
-      </c>
+      <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="3"/>
     </row>
     <row r="201" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
-      <c r="C201" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E201" s="4"/>
+      <c r="C201" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D201" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F201" s="4"/>
-      <c r="G201" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G201" s="9"/>
       <c r="H201" s="4"/>
-      <c r="I201" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J201" s="5"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
       <c r="K201" s="3"/>
     </row>
     <row r="202" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
-      <c r="C202" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
+      <c r="C202" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D202" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F202" s="4"/>
       <c r="G202" s="9"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="5"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
       <c r="K202" s="3"/>
     </row>
     <row r="203" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="23"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="22"/>
-      <c r="H203" s="23"/>
-      <c r="I203" s="23"/>
-      <c r="J203" s="23"/>
-      <c r="K203" s="21"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D203" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F203" s="4"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="3"/>
     </row>
     <row r="204" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="23"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="22"/>
-      <c r="H204" s="20"/>
-      <c r="I204" s="22"/>
-      <c r="J204" s="22"/>
-      <c r="K204" s="21"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F204" s="4"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="3"/>
     </row>
     <row r="205" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="23"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="20"/>
-      <c r="I205" s="22"/>
-      <c r="J205" s="22"/>
-      <c r="K205" s="21"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D205" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F205" s="4"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="C206" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D206" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F206" s="4"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="3"/>
     </row>
     <row r="207" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="25"/>
-      <c r="I207" s="25"/>
-      <c r="J207" s="25"/>
-      <c r="K207" s="26"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D207" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F207" s="4"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="3"/>
     </row>
     <row r="208" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="25"/>
-      <c r="I208" s="25"/>
-      <c r="J208" s="25"/>
-      <c r="K208" s="26"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D208" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F208" s="4"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="3"/>
     </row>
     <row r="209" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I209" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J209" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K209" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B209" s="5"/>
+      <c r="C209" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D209" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F209" s="4"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="3"/>
     </row>
     <row r="210" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C210" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D210" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F210" s="4"/>
-      <c r="G210" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G210" s="9"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="J210" s="4"/>
       <c r="K210" s="3"/>
     </row>
     <row r="211" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C211" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D211" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F211" s="4"/>
-      <c r="G211" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G211" s="9"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="3"/>
     </row>
     <row r="212" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C212" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D212" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F212" s="4"/>
-      <c r="G212" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G212" s="9"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
@@ -4310,127 +4387,117 @@
     </row>
     <row r="213" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
-      <c r="C213" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" s="4"/>
+      <c r="C213" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D213" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F213" s="4"/>
-      <c r="G213" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G213" s="9"/>
       <c r="H213" s="4"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
       <c r="K213" s="3"/>
     </row>
     <row r="214" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
-      <c r="C214" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E214" s="4"/>
+      <c r="C214" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D214" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F214" s="4"/>
-      <c r="G214" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G214" s="9"/>
       <c r="H214" s="4"/>
-      <c r="I214" s="4">
-        <v>1</v>
-      </c>
+      <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="3"/>
     </row>
     <row r="215" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
-      <c r="C215" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E215" s="4"/>
+      <c r="C215" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D215" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F215" s="4"/>
-      <c r="G215" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="G215" s="9"/>
       <c r="H215" s="4"/>
-      <c r="I215" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="I215" s="4"/>
       <c r="J215" s="5"/>
       <c r="K215" s="3"/>
     </row>
     <row r="216" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="5"/>
+      <c r="B216" s="4"/>
       <c r="C216" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4">
+        <v>1</v>
+      </c>
+      <c r="J216" s="4"/>
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="C217" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J217" s="5"/>
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="C218" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D216" s="9" t="s">
+      <c r="D218" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E216" s="6"/>
-      <c r="F216" s="6"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="6"/>
-      <c r="I216" s="6"/>
-      <c r="J216" s="5"/>
-      <c r="K216" s="3"/>
-    </row>
-    <row r="217" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="23"/>
-      <c r="C217" s="21"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="23"/>
-      <c r="G217" s="22"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="23"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="21"/>
-    </row>
-    <row r="218" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="23"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="22"/>
-      <c r="H218" s="20"/>
-      <c r="I218" s="22"/>
-      <c r="J218" s="22"/>
-      <c r="K218" s="21"/>
-    </row>
-    <row r="219" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="23"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="22"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="21"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C147:K147"/>
-    <mergeCell ref="C178:K178"/>
-    <mergeCell ref="C163:K163"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
+  <mergeCells count="26">
+    <mergeCell ref="C146:K146"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="C179:K179"/>
     <mergeCell ref="C193:K193"/>
@@ -4447,8 +4514,17 @@
     <mergeCell ref="C98:K98"/>
     <mergeCell ref="C115:K115"/>
     <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C146:K146"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C147:K147"/>
+    <mergeCell ref="C178:K178"/>
+    <mergeCell ref="C163:K163"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
